--- a/Project2-Shiny/JieleiZhu/data/(master)Income_Marital.xlsx
+++ b/Project2-Shiny/JieleiZhu/data/(master)Income_Marital.xlsx
@@ -183,9 +183,6 @@
     <t>White</t>
   </si>
   <si>
-    <t>SpouseAway</t>
-  </si>
-  <si>
     <t>SpousePresent</t>
   </si>
   <si>
@@ -199,6 +196,9 @@
   </si>
   <si>
     <t>Standard_Error(Mean)</t>
+  </si>
+  <si>
+    <t>SpouseAbsent</t>
   </si>
 </sst>
 </file>
@@ -704,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AS4" sqref="AS4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -853,18 +853,18 @@
         <v>50</v>
       </c>
       <c r="AU1" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AV1" s="4" t="s">
         <v>51</v>
       </c>
       <c r="AW1" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:49">
       <c r="A2" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>53</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="3" spans="1:49">
       <c r="A3" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>53</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="4" spans="1:49">
       <c r="A4" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>53</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="5" spans="1:49">
       <c r="A5" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>53</v>
@@ -1609,7 +1609,7 @@
     </row>
     <row r="7" spans="1:49">
       <c r="A7" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>2</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="8" spans="1:49">
       <c r="A8" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>2</v>
@@ -1907,7 +1907,7 @@
     </row>
     <row r="9" spans="1:49">
       <c r="A9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>2</v>
@@ -2056,7 +2056,7 @@
     </row>
     <row r="10" spans="1:49">
       <c r="A10" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>2</v>
@@ -2354,7 +2354,7 @@
     </row>
     <row r="12" spans="1:49">
       <c r="A12" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>3</v>
@@ -2503,7 +2503,7 @@
     </row>
     <row r="13" spans="1:49">
       <c r="A13" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>3</v>
@@ -2652,7 +2652,7 @@
     </row>
     <row r="14" spans="1:49">
       <c r="A14" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>3</v>
@@ -2801,7 +2801,7 @@
     </row>
     <row r="15" spans="1:49">
       <c r="A15" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>3</v>
@@ -3099,7 +3099,7 @@
     </row>
     <row r="17" spans="1:49">
       <c r="A17" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>4</v>
@@ -3248,7 +3248,7 @@
     </row>
     <row r="18" spans="1:49">
       <c r="A18" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>4</v>
@@ -3397,7 +3397,7 @@
     </row>
     <row r="19" spans="1:49">
       <c r="A19" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>4</v>
@@ -3546,7 +3546,7 @@
     </row>
     <row r="20" spans="1:49">
       <c r="A20" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>4</v>
@@ -3844,7 +3844,7 @@
     </row>
     <row r="22" spans="1:49">
       <c r="A22" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>53</v>
@@ -3993,7 +3993,7 @@
     </row>
     <row r="23" spans="1:49">
       <c r="A23" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>53</v>
@@ -4142,7 +4142,7 @@
     </row>
     <row r="24" spans="1:49">
       <c r="A24" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>53</v>
@@ -4291,7 +4291,7 @@
     </row>
     <row r="25" spans="1:49">
       <c r="A25" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>53</v>
@@ -4589,7 +4589,7 @@
     </row>
     <row r="27" spans="1:49">
       <c r="A27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>2</v>
@@ -4738,7 +4738,7 @@
     </row>
     <row r="28" spans="1:49">
       <c r="A28" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>2</v>
@@ -4887,7 +4887,7 @@
     </row>
     <row r="29" spans="1:49">
       <c r="A29" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>2</v>
@@ -5036,7 +5036,7 @@
     </row>
     <row r="30" spans="1:49">
       <c r="A30" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>2</v>
@@ -5334,7 +5334,7 @@
     </row>
     <row r="32" spans="1:49">
       <c r="A32" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>3</v>
@@ -5483,7 +5483,7 @@
     </row>
     <row r="33" spans="1:49">
       <c r="A33" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>3</v>
@@ -5632,7 +5632,7 @@
     </row>
     <row r="34" spans="1:49">
       <c r="A34" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>3</v>
@@ -5781,7 +5781,7 @@
     </row>
     <row r="35" spans="1:49">
       <c r="A35" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>3</v>
@@ -6079,7 +6079,7 @@
     </row>
     <row r="37" spans="1:49">
       <c r="A37" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>4</v>
@@ -6228,7 +6228,7 @@
     </row>
     <row r="38" spans="1:49">
       <c r="A38" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>4</v>
@@ -6377,7 +6377,7 @@
     </row>
     <row r="39" spans="1:49">
       <c r="A39" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>4</v>
@@ -6526,7 +6526,7 @@
     </row>
     <row r="40" spans="1:49">
       <c r="A40" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>4</v>
@@ -6824,7 +6824,7 @@
     </row>
     <row r="42" spans="1:49">
       <c r="A42" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>53</v>
@@ -6973,7 +6973,7 @@
     </row>
     <row r="43" spans="1:49">
       <c r="A43" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>53</v>
@@ -7122,7 +7122,7 @@
     </row>
     <row r="44" spans="1:49">
       <c r="A44" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>53</v>
@@ -7271,7 +7271,7 @@
     </row>
     <row r="45" spans="1:49">
       <c r="A45" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>53</v>
@@ -7569,7 +7569,7 @@
     </row>
     <row r="47" spans="1:49">
       <c r="A47" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>2</v>
@@ -7718,7 +7718,7 @@
     </row>
     <row r="48" spans="1:49">
       <c r="A48" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>2</v>
@@ -7867,7 +7867,7 @@
     </row>
     <row r="49" spans="1:49">
       <c r="A49" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>2</v>
@@ -8016,7 +8016,7 @@
     </row>
     <row r="50" spans="1:49">
       <c r="A50" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>2</v>
@@ -8314,7 +8314,7 @@
     </row>
     <row r="52" spans="1:49">
       <c r="A52" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>3</v>
@@ -8463,7 +8463,7 @@
     </row>
     <row r="53" spans="1:49">
       <c r="A53" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>3</v>
@@ -8612,7 +8612,7 @@
     </row>
     <row r="54" spans="1:49">
       <c r="A54" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>3</v>
@@ -8761,7 +8761,7 @@
     </row>
     <row r="55" spans="1:49">
       <c r="A55" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>3</v>
@@ -9059,7 +9059,7 @@
     </row>
     <row r="57" spans="1:49">
       <c r="A57" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>4</v>
@@ -9208,7 +9208,7 @@
     </row>
     <row r="58" spans="1:49">
       <c r="A58" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>4</v>
@@ -9357,7 +9357,7 @@
     </row>
     <row r="59" spans="1:49">
       <c r="A59" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>4</v>
@@ -9506,7 +9506,7 @@
     </row>
     <row r="60" spans="1:49">
       <c r="A60" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>4</v>
@@ -9804,7 +9804,7 @@
     </row>
     <row r="62" spans="1:49">
       <c r="A62" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>53</v>
@@ -9953,7 +9953,7 @@
     </row>
     <row r="63" spans="1:49">
       <c r="A63" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>53</v>
@@ -10102,7 +10102,7 @@
     </row>
     <row r="64" spans="1:49">
       <c r="A64" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>53</v>
@@ -10251,7 +10251,7 @@
     </row>
     <row r="65" spans="1:49">
       <c r="A65" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>53</v>
@@ -10549,7 +10549,7 @@
     </row>
     <row r="67" spans="1:49">
       <c r="A67" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>2</v>
@@ -10698,7 +10698,7 @@
     </row>
     <row r="68" spans="1:49">
       <c r="A68" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>2</v>
@@ -10847,7 +10847,7 @@
     </row>
     <row r="69" spans="1:49">
       <c r="A69" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>2</v>
@@ -10996,7 +10996,7 @@
     </row>
     <row r="70" spans="1:49">
       <c r="A70" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>2</v>
@@ -11294,7 +11294,7 @@
     </row>
     <row r="72" spans="1:49">
       <c r="A72" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>3</v>
@@ -11443,7 +11443,7 @@
     </row>
     <row r="73" spans="1:49">
       <c r="A73" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>3</v>
@@ -11592,7 +11592,7 @@
     </row>
     <row r="74" spans="1:49">
       <c r="A74" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>3</v>
@@ -11741,7 +11741,7 @@
     </row>
     <row r="75" spans="1:49">
       <c r="A75" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>3</v>
@@ -12039,7 +12039,7 @@
     </row>
     <row r="77" spans="1:49">
       <c r="A77" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>4</v>
@@ -12188,7 +12188,7 @@
     </row>
     <row r="78" spans="1:49">
       <c r="A78" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>4</v>
@@ -12337,7 +12337,7 @@
     </row>
     <row r="79" spans="1:49">
       <c r="A79" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>4</v>
@@ -12486,7 +12486,7 @@
     </row>
     <row r="80" spans="1:49">
       <c r="A80" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>4</v>
@@ -12784,7 +12784,7 @@
     </row>
     <row r="82" spans="1:49">
       <c r="A82" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>53</v>
@@ -12933,7 +12933,7 @@
     </row>
     <row r="83" spans="1:49">
       <c r="A83" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>53</v>
@@ -13082,7 +13082,7 @@
     </row>
     <row r="84" spans="1:49">
       <c r="A84" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>53</v>
@@ -13231,7 +13231,7 @@
     </row>
     <row r="85" spans="1:49">
       <c r="A85" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>53</v>
@@ -13529,7 +13529,7 @@
     </row>
     <row r="87" spans="1:49">
       <c r="A87" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>2</v>
@@ -13678,7 +13678,7 @@
     </row>
     <row r="88" spans="1:49">
       <c r="A88" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>2</v>
@@ -13827,7 +13827,7 @@
     </row>
     <row r="89" spans="1:49">
       <c r="A89" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>2</v>
@@ -13976,7 +13976,7 @@
     </row>
     <row r="90" spans="1:49">
       <c r="A90" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>2</v>
@@ -14274,7 +14274,7 @@
     </row>
     <row r="92" spans="1:49">
       <c r="A92" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>3</v>
@@ -14423,7 +14423,7 @@
     </row>
     <row r="93" spans="1:49">
       <c r="A93" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>3</v>
@@ -14572,7 +14572,7 @@
     </row>
     <row r="94" spans="1:49">
       <c r="A94" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>3</v>
@@ -14721,7 +14721,7 @@
     </row>
     <row r="95" spans="1:49">
       <c r="A95" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>3</v>
@@ -15019,7 +15019,7 @@
     </row>
     <row r="97" spans="1:49">
       <c r="A97" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>4</v>
@@ -15168,7 +15168,7 @@
     </row>
     <row r="98" spans="1:49">
       <c r="A98" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>4</v>
@@ -15317,7 +15317,7 @@
     </row>
     <row r="99" spans="1:49">
       <c r="A99" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>4</v>
@@ -15466,7 +15466,7 @@
     </row>
     <row r="100" spans="1:49">
       <c r="A100" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>4</v>
@@ -15764,7 +15764,7 @@
     </row>
     <row r="102" spans="1:49">
       <c r="A102" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>53</v>
@@ -15913,7 +15913,7 @@
     </row>
     <row r="103" spans="1:49">
       <c r="A103" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>53</v>
@@ -16062,7 +16062,7 @@
     </row>
     <row r="104" spans="1:49">
       <c r="A104" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B104" s="7" t="s">
         <v>53</v>
@@ -16211,7 +16211,7 @@
     </row>
     <row r="105" spans="1:49">
       <c r="A105" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B105" s="7" t="s">
         <v>53</v>
@@ -16509,7 +16509,7 @@
     </row>
     <row r="107" spans="1:49">
       <c r="A107" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>2</v>
@@ -16658,7 +16658,7 @@
     </row>
     <row r="108" spans="1:49">
       <c r="A108" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B108" s="7" t="s">
         <v>2</v>
@@ -16807,7 +16807,7 @@
     </row>
     <row r="109" spans="1:49">
       <c r="A109" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B109" s="7" t="s">
         <v>2</v>
@@ -16956,7 +16956,7 @@
     </row>
     <row r="110" spans="1:49">
       <c r="A110" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B110" s="7" t="s">
         <v>2</v>
@@ -17254,7 +17254,7 @@
     </row>
     <row r="112" spans="1:49">
       <c r="A112" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B112" s="7" t="s">
         <v>3</v>
@@ -17403,7 +17403,7 @@
     </row>
     <row r="113" spans="1:49">
       <c r="A113" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B113" s="7" t="s">
         <v>3</v>
@@ -17552,7 +17552,7 @@
     </row>
     <row r="114" spans="1:49">
       <c r="A114" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B114" s="7" t="s">
         <v>3</v>
@@ -17701,7 +17701,7 @@
     </row>
     <row r="115" spans="1:49">
       <c r="A115" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B115" s="7" t="s">
         <v>3</v>
@@ -17999,7 +17999,7 @@
     </row>
     <row r="117" spans="1:49">
       <c r="A117" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B117" s="7" t="s">
         <v>4</v>
@@ -18148,7 +18148,7 @@
     </row>
     <row r="118" spans="1:49">
       <c r="A118" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B118" s="7" t="s">
         <v>4</v>
@@ -18297,7 +18297,7 @@
     </row>
     <row r="119" spans="1:49">
       <c r="A119" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B119" s="7" t="s">
         <v>4</v>
@@ -18446,7 +18446,7 @@
     </row>
     <row r="120" spans="1:49">
       <c r="A120" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B120" s="7" t="s">
         <v>4</v>
@@ -18744,7 +18744,7 @@
     </row>
     <row r="122" spans="1:49">
       <c r="A122" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B122" s="7" t="s">
         <v>53</v>
@@ -18893,7 +18893,7 @@
     </row>
     <row r="123" spans="1:49">
       <c r="A123" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>53</v>
@@ -19042,7 +19042,7 @@
     </row>
     <row r="124" spans="1:49">
       <c r="A124" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B124" s="7" t="s">
         <v>53</v>
@@ -19191,7 +19191,7 @@
     </row>
     <row r="125" spans="1:49">
       <c r="A125" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B125" s="7" t="s">
         <v>53</v>
@@ -19489,7 +19489,7 @@
     </row>
     <row r="127" spans="1:49">
       <c r="A127" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B127" s="7" t="s">
         <v>2</v>
@@ -19638,7 +19638,7 @@
     </row>
     <row r="128" spans="1:49">
       <c r="A128" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B128" s="7" t="s">
         <v>2</v>
@@ -19787,7 +19787,7 @@
     </row>
     <row r="129" spans="1:49">
       <c r="A129" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B129" s="7" t="s">
         <v>2</v>
@@ -19936,7 +19936,7 @@
     </row>
     <row r="130" spans="1:49">
       <c r="A130" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B130" s="7" t="s">
         <v>2</v>
@@ -20234,7 +20234,7 @@
     </row>
     <row r="132" spans="1:49">
       <c r="A132" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B132" s="7" t="s">
         <v>3</v>
@@ -20383,7 +20383,7 @@
     </row>
     <row r="133" spans="1:49">
       <c r="A133" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B133" s="7" t="s">
         <v>3</v>
@@ -20532,7 +20532,7 @@
     </row>
     <row r="134" spans="1:49">
       <c r="A134" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B134" s="7" t="s">
         <v>3</v>
@@ -20681,7 +20681,7 @@
     </row>
     <row r="135" spans="1:49">
       <c r="A135" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B135" s="7" t="s">
         <v>3</v>
@@ -20979,7 +20979,7 @@
     </row>
     <row r="137" spans="1:49">
       <c r="A137" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B137" s="7" t="s">
         <v>4</v>
@@ -21128,7 +21128,7 @@
     </row>
     <row r="138" spans="1:49">
       <c r="A138" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B138" s="7" t="s">
         <v>4</v>
@@ -21277,7 +21277,7 @@
     </row>
     <row r="139" spans="1:49">
       <c r="A139" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B139" s="7" t="s">
         <v>4</v>
@@ -21426,7 +21426,7 @@
     </row>
     <row r="140" spans="1:49">
       <c r="A140" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B140" s="7" t="s">
         <v>4</v>
@@ -21724,7 +21724,7 @@
     </row>
     <row r="142" spans="1:49">
       <c r="A142" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B142" s="7" t="s">
         <v>53</v>
@@ -21873,7 +21873,7 @@
     </row>
     <row r="143" spans="1:49">
       <c r="A143" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B143" s="7" t="s">
         <v>53</v>
@@ -22022,7 +22022,7 @@
     </row>
     <row r="144" spans="1:49">
       <c r="A144" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B144" s="7" t="s">
         <v>53</v>
@@ -22171,7 +22171,7 @@
     </row>
     <row r="145" spans="1:49">
       <c r="A145" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B145" s="7" t="s">
         <v>53</v>
@@ -22469,7 +22469,7 @@
     </row>
     <row r="147" spans="1:49">
       <c r="A147" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B147" s="7" t="s">
         <v>2</v>
@@ -22618,7 +22618,7 @@
     </row>
     <row r="148" spans="1:49">
       <c r="A148" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B148" s="7" t="s">
         <v>2</v>
@@ -22767,7 +22767,7 @@
     </row>
     <row r="149" spans="1:49">
       <c r="A149" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B149" s="7" t="s">
         <v>2</v>
@@ -22916,7 +22916,7 @@
     </row>
     <row r="150" spans="1:49">
       <c r="A150" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B150" s="7" t="s">
         <v>2</v>
@@ -23214,7 +23214,7 @@
     </row>
     <row r="152" spans="1:49">
       <c r="A152" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B152" s="7" t="s">
         <v>3</v>
@@ -23363,7 +23363,7 @@
     </row>
     <row r="153" spans="1:49">
       <c r="A153" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B153" s="7" t="s">
         <v>3</v>
@@ -23512,7 +23512,7 @@
     </row>
     <row r="154" spans="1:49">
       <c r="A154" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B154" s="7" t="s">
         <v>3</v>
@@ -23661,7 +23661,7 @@
     </row>
     <row r="155" spans="1:49">
       <c r="A155" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B155" s="7" t="s">
         <v>3</v>
@@ -23959,7 +23959,7 @@
     </row>
     <row r="157" spans="1:49">
       <c r="A157" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B157" s="7" t="s">
         <v>4</v>
@@ -24108,7 +24108,7 @@
     </row>
     <row r="158" spans="1:49">
       <c r="A158" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B158" s="7" t="s">
         <v>4</v>
@@ -24257,7 +24257,7 @@
     </row>
     <row r="159" spans="1:49">
       <c r="A159" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B159" s="7" t="s">
         <v>4</v>
@@ -24406,7 +24406,7 @@
     </row>
     <row r="160" spans="1:49">
       <c r="A160" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B160" s="7" t="s">
         <v>4</v>
@@ -24704,7 +24704,7 @@
     </row>
     <row r="162" spans="1:49">
       <c r="A162" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B162" s="7" t="s">
         <v>53</v>
@@ -24853,7 +24853,7 @@
     </row>
     <row r="163" spans="1:49">
       <c r="A163" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B163" s="7" t="s">
         <v>53</v>
@@ -25002,7 +25002,7 @@
     </row>
     <row r="164" spans="1:49">
       <c r="A164" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B164" s="7" t="s">
         <v>53</v>
@@ -25151,7 +25151,7 @@
     </row>
     <row r="165" spans="1:49">
       <c r="A165" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B165" s="7" t="s">
         <v>53</v>
@@ -25449,7 +25449,7 @@
     </row>
     <row r="167" spans="1:49">
       <c r="A167" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B167" s="7" t="s">
         <v>2</v>
@@ -25598,7 +25598,7 @@
     </row>
     <row r="168" spans="1:49">
       <c r="A168" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B168" s="7" t="s">
         <v>2</v>
@@ -25747,7 +25747,7 @@
     </row>
     <row r="169" spans="1:49">
       <c r="A169" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B169" s="7" t="s">
         <v>2</v>
@@ -25896,7 +25896,7 @@
     </row>
     <row r="170" spans="1:49">
       <c r="A170" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B170" s="7" t="s">
         <v>2</v>
@@ -26194,7 +26194,7 @@
     </row>
     <row r="172" spans="1:49">
       <c r="A172" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B172" s="7" t="s">
         <v>3</v>
@@ -26343,7 +26343,7 @@
     </row>
     <row r="173" spans="1:49">
       <c r="A173" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B173" s="7" t="s">
         <v>3</v>
@@ -26492,7 +26492,7 @@
     </row>
     <row r="174" spans="1:49">
       <c r="A174" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B174" s="7" t="s">
         <v>3</v>
@@ -26641,7 +26641,7 @@
     </row>
     <row r="175" spans="1:49">
       <c r="A175" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B175" s="7" t="s">
         <v>3</v>
@@ -26939,7 +26939,7 @@
     </row>
     <row r="177" spans="1:49">
       <c r="A177" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B177" s="7" t="s">
         <v>4</v>
@@ -27088,7 +27088,7 @@
     </row>
     <row r="178" spans="1:49">
       <c r="A178" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B178" s="7" t="s">
         <v>4</v>
@@ -27237,7 +27237,7 @@
     </row>
     <row r="179" spans="1:49">
       <c r="A179" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B179" s="7" t="s">
         <v>4</v>
@@ -27386,7 +27386,7 @@
     </row>
     <row r="180" spans="1:49">
       <c r="A180" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B180" s="7" t="s">
         <v>4</v>
@@ -27684,7 +27684,7 @@
     </row>
     <row r="182" spans="1:49">
       <c r="A182" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B182" s="7" t="s">
         <v>53</v>
@@ -27833,7 +27833,7 @@
     </row>
     <row r="183" spans="1:49">
       <c r="A183" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B183" s="7" t="s">
         <v>53</v>
@@ -27982,7 +27982,7 @@
     </row>
     <row r="184" spans="1:49">
       <c r="A184" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B184" s="7" t="s">
         <v>53</v>
@@ -28131,7 +28131,7 @@
     </row>
     <row r="185" spans="1:49">
       <c r="A185" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B185" s="7" t="s">
         <v>53</v>
@@ -28429,7 +28429,7 @@
     </row>
     <row r="187" spans="1:49">
       <c r="A187" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B187" s="7" t="s">
         <v>2</v>
@@ -28578,7 +28578,7 @@
     </row>
     <row r="188" spans="1:49">
       <c r="A188" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B188" s="7" t="s">
         <v>2</v>
@@ -28727,7 +28727,7 @@
     </row>
     <row r="189" spans="1:49">
       <c r="A189" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B189" s="7" t="s">
         <v>2</v>
@@ -28876,7 +28876,7 @@
     </row>
     <row r="190" spans="1:49">
       <c r="A190" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B190" s="7" t="s">
         <v>2</v>
@@ -29174,7 +29174,7 @@
     </row>
     <row r="192" spans="1:49">
       <c r="A192" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B192" s="7" t="s">
         <v>3</v>
@@ -29323,7 +29323,7 @@
     </row>
     <row r="193" spans="1:49">
       <c r="A193" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B193" s="7" t="s">
         <v>3</v>
@@ -29472,7 +29472,7 @@
     </row>
     <row r="194" spans="1:49">
       <c r="A194" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B194" s="7" t="s">
         <v>3</v>
@@ -29621,7 +29621,7 @@
     </row>
     <row r="195" spans="1:49">
       <c r="A195" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B195" s="7" t="s">
         <v>3</v>
@@ -29919,7 +29919,7 @@
     </row>
     <row r="197" spans="1:49">
       <c r="A197" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B197" s="7" t="s">
         <v>4</v>
@@ -30068,7 +30068,7 @@
     </row>
     <row r="198" spans="1:49">
       <c r="A198" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B198" s="7" t="s">
         <v>4</v>
@@ -30217,7 +30217,7 @@
     </row>
     <row r="199" spans="1:49">
       <c r="A199" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B199" s="7" t="s">
         <v>4</v>
@@ -30366,7 +30366,7 @@
     </row>
     <row r="200" spans="1:49">
       <c r="A200" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B200" s="7" t="s">
         <v>4</v>
@@ -30664,7 +30664,7 @@
     </row>
     <row r="202" spans="1:49">
       <c r="A202" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B202" s="7" t="s">
         <v>53</v>
@@ -30813,7 +30813,7 @@
     </row>
     <row r="203" spans="1:49">
       <c r="A203" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B203" s="7" t="s">
         <v>53</v>
@@ -30962,7 +30962,7 @@
     </row>
     <row r="204" spans="1:49">
       <c r="A204" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B204" s="7" t="s">
         <v>53</v>
@@ -31111,7 +31111,7 @@
     </row>
     <row r="205" spans="1:49">
       <c r="A205" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B205" s="7" t="s">
         <v>53</v>
@@ -31409,7 +31409,7 @@
     </row>
     <row r="207" spans="1:49">
       <c r="A207" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B207" s="7" t="s">
         <v>2</v>
@@ -31558,7 +31558,7 @@
     </row>
     <row r="208" spans="1:49">
       <c r="A208" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B208" s="7" t="s">
         <v>2</v>
@@ -31707,7 +31707,7 @@
     </row>
     <row r="209" spans="1:49">
       <c r="A209" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B209" s="7" t="s">
         <v>2</v>
@@ -31856,7 +31856,7 @@
     </row>
     <row r="210" spans="1:49">
       <c r="A210" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B210" s="7" t="s">
         <v>2</v>
@@ -32154,7 +32154,7 @@
     </row>
     <row r="212" spans="1:49">
       <c r="A212" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B212" s="7" t="s">
         <v>3</v>
@@ -32303,7 +32303,7 @@
     </row>
     <row r="213" spans="1:49">
       <c r="A213" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B213" s="7" t="s">
         <v>3</v>
@@ -32452,7 +32452,7 @@
     </row>
     <row r="214" spans="1:49">
       <c r="A214" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B214" s="7" t="s">
         <v>3</v>
@@ -32601,7 +32601,7 @@
     </row>
     <row r="215" spans="1:49">
       <c r="A215" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B215" s="7" t="s">
         <v>3</v>
@@ -32899,7 +32899,7 @@
     </row>
     <row r="217" spans="1:49">
       <c r="A217" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B217" s="7" t="s">
         <v>4</v>
@@ -33048,7 +33048,7 @@
     </row>
     <row r="218" spans="1:49">
       <c r="A218" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B218" s="7" t="s">
         <v>4</v>
@@ -33197,7 +33197,7 @@
     </row>
     <row r="219" spans="1:49">
       <c r="A219" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B219" s="7" t="s">
         <v>4</v>
@@ -33346,7 +33346,7 @@
     </row>
     <row r="220" spans="1:49">
       <c r="A220" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B220" s="7" t="s">
         <v>4</v>
@@ -33644,7 +33644,7 @@
     </row>
     <row r="222" spans="1:49">
       <c r="A222" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B222" s="7" t="s">
         <v>53</v>
@@ -33793,7 +33793,7 @@
     </row>
     <row r="223" spans="1:49">
       <c r="A223" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B223" s="7" t="s">
         <v>53</v>
@@ -33942,7 +33942,7 @@
     </row>
     <row r="224" spans="1:49">
       <c r="A224" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B224" s="7" t="s">
         <v>53</v>
@@ -34091,7 +34091,7 @@
     </row>
     <row r="225" spans="1:49">
       <c r="A225" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B225" s="7" t="s">
         <v>53</v>
@@ -34389,7 +34389,7 @@
     </row>
     <row r="227" spans="1:49">
       <c r="A227" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B227" s="7" t="s">
         <v>2</v>
@@ -34538,7 +34538,7 @@
     </row>
     <row r="228" spans="1:49">
       <c r="A228" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B228" s="7" t="s">
         <v>2</v>
@@ -34687,7 +34687,7 @@
     </row>
     <row r="229" spans="1:49">
       <c r="A229" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B229" s="7" t="s">
         <v>2</v>
@@ -34836,7 +34836,7 @@
     </row>
     <row r="230" spans="1:49">
       <c r="A230" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B230" s="7" t="s">
         <v>2</v>
@@ -35134,7 +35134,7 @@
     </row>
     <row r="232" spans="1:49">
       <c r="A232" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B232" s="7" t="s">
         <v>3</v>
@@ -35283,7 +35283,7 @@
     </row>
     <row r="233" spans="1:49">
       <c r="A233" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B233" s="7" t="s">
         <v>3</v>
@@ -35432,7 +35432,7 @@
     </row>
     <row r="234" spans="1:49">
       <c r="A234" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B234" s="7" t="s">
         <v>3</v>
@@ -35581,7 +35581,7 @@
     </row>
     <row r="235" spans="1:49">
       <c r="A235" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B235" s="7" t="s">
         <v>3</v>
@@ -35879,7 +35879,7 @@
     </row>
     <row r="237" spans="1:49">
       <c r="A237" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B237" s="7" t="s">
         <v>4</v>
@@ -36028,7 +36028,7 @@
     </row>
     <row r="238" spans="1:49">
       <c r="A238" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B238" s="7" t="s">
         <v>4</v>
@@ -36177,7 +36177,7 @@
     </row>
     <row r="239" spans="1:49">
       <c r="A239" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B239" s="7" t="s">
         <v>4</v>
@@ -36326,7 +36326,7 @@
     </row>
     <row r="240" spans="1:49">
       <c r="A240" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B240" s="7" t="s">
         <v>4</v>
@@ -36624,7 +36624,7 @@
     </row>
     <row r="242" spans="1:49">
       <c r="A242" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B242" s="7" t="s">
         <v>53</v>
@@ -36773,7 +36773,7 @@
     </row>
     <row r="243" spans="1:49">
       <c r="A243" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B243" s="7" t="s">
         <v>53</v>
@@ -36922,7 +36922,7 @@
     </row>
     <row r="244" spans="1:49">
       <c r="A244" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B244" s="7" t="s">
         <v>53</v>
@@ -37071,7 +37071,7 @@
     </row>
     <row r="245" spans="1:49">
       <c r="A245" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B245" s="7" t="s">
         <v>53</v>
@@ -37369,7 +37369,7 @@
     </row>
     <row r="247" spans="1:49">
       <c r="A247" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B247" s="7" t="s">
         <v>2</v>
@@ -37518,7 +37518,7 @@
     </row>
     <row r="248" spans="1:49">
       <c r="A248" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B248" s="7" t="s">
         <v>2</v>
@@ -37667,7 +37667,7 @@
     </row>
     <row r="249" spans="1:49">
       <c r="A249" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B249" s="7" t="s">
         <v>2</v>
@@ -37816,7 +37816,7 @@
     </row>
     <row r="250" spans="1:49">
       <c r="A250" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B250" s="7" t="s">
         <v>2</v>
@@ -38114,7 +38114,7 @@
     </row>
     <row r="252" spans="1:49">
       <c r="A252" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B252" s="7" t="s">
         <v>3</v>
@@ -38263,7 +38263,7 @@
     </row>
     <row r="253" spans="1:49">
       <c r="A253" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B253" s="7" t="s">
         <v>3</v>
@@ -38412,7 +38412,7 @@
     </row>
     <row r="254" spans="1:49">
       <c r="A254" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B254" s="7" t="s">
         <v>3</v>
@@ -38561,7 +38561,7 @@
     </row>
     <row r="255" spans="1:49">
       <c r="A255" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B255" s="7" t="s">
         <v>3</v>
@@ -38859,7 +38859,7 @@
     </row>
     <row r="257" spans="1:49">
       <c r="A257" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B257" s="7" t="s">
         <v>4</v>
@@ -39008,7 +39008,7 @@
     </row>
     <row r="258" spans="1:49">
       <c r="A258" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B258" s="7" t="s">
         <v>4</v>
@@ -39157,7 +39157,7 @@
     </row>
     <row r="259" spans="1:49">
       <c r="A259" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B259" s="7" t="s">
         <v>4</v>
@@ -39306,7 +39306,7 @@
     </row>
     <row r="260" spans="1:49">
       <c r="A260" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B260" s="7" t="s">
         <v>4</v>
@@ -39604,7 +39604,7 @@
     </row>
     <row r="262" spans="1:49">
       <c r="A262" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B262" s="7" t="s">
         <v>53</v>
@@ -39753,7 +39753,7 @@
     </row>
     <row r="263" spans="1:49">
       <c r="A263" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B263" s="7" t="s">
         <v>53</v>
@@ -39902,7 +39902,7 @@
     </row>
     <row r="264" spans="1:49">
       <c r="A264" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B264" s="7" t="s">
         <v>53</v>
@@ -40051,7 +40051,7 @@
     </row>
     <row r="265" spans="1:49">
       <c r="A265" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B265" s="7" t="s">
         <v>53</v>
@@ -40349,7 +40349,7 @@
     </row>
     <row r="267" spans="1:49">
       <c r="A267" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B267" s="7" t="s">
         <v>2</v>
@@ -40498,7 +40498,7 @@
     </row>
     <row r="268" spans="1:49">
       <c r="A268" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B268" s="7" t="s">
         <v>2</v>
@@ -40647,7 +40647,7 @@
     </row>
     <row r="269" spans="1:49">
       <c r="A269" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B269" s="7" t="s">
         <v>2</v>
@@ -40796,7 +40796,7 @@
     </row>
     <row r="270" spans="1:49">
       <c r="A270" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B270" s="7" t="s">
         <v>2</v>
@@ -41094,7 +41094,7 @@
     </row>
     <row r="272" spans="1:49">
       <c r="A272" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B272" s="7" t="s">
         <v>3</v>
@@ -41243,7 +41243,7 @@
     </row>
     <row r="273" spans="1:49">
       <c r="A273" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B273" s="7" t="s">
         <v>3</v>
@@ -41392,7 +41392,7 @@
     </row>
     <row r="274" spans="1:49">
       <c r="A274" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B274" s="7" t="s">
         <v>3</v>
@@ -41541,7 +41541,7 @@
     </row>
     <row r="275" spans="1:49">
       <c r="A275" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B275" s="7" t="s">
         <v>3</v>
@@ -41839,7 +41839,7 @@
     </row>
     <row r="277" spans="1:49">
       <c r="A277" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B277" s="7" t="s">
         <v>4</v>
@@ -41988,7 +41988,7 @@
     </row>
     <row r="278" spans="1:49">
       <c r="A278" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B278" s="7" t="s">
         <v>4</v>
@@ -42137,7 +42137,7 @@
     </row>
     <row r="279" spans="1:49">
       <c r="A279" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B279" s="7" t="s">
         <v>4</v>
@@ -42286,7 +42286,7 @@
     </row>
     <row r="280" spans="1:49">
       <c r="A280" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B280" s="7" t="s">
         <v>4</v>
@@ -42584,7 +42584,7 @@
     </row>
     <row r="282" spans="1:49">
       <c r="A282" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B282" s="7" t="s">
         <v>53</v>
@@ -42733,7 +42733,7 @@
     </row>
     <row r="283" spans="1:49">
       <c r="A283" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B283" s="7" t="s">
         <v>53</v>
@@ -42882,7 +42882,7 @@
     </row>
     <row r="284" spans="1:49">
       <c r="A284" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B284" s="7" t="s">
         <v>53</v>
@@ -43031,7 +43031,7 @@
     </row>
     <row r="285" spans="1:49">
       <c r="A285" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B285" s="7" t="s">
         <v>53</v>
@@ -43329,7 +43329,7 @@
     </row>
     <row r="287" spans="1:49">
       <c r="A287" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B287" s="7" t="s">
         <v>2</v>
@@ -43478,7 +43478,7 @@
     </row>
     <row r="288" spans="1:49">
       <c r="A288" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B288" s="7" t="s">
         <v>2</v>
@@ -43627,7 +43627,7 @@
     </row>
     <row r="289" spans="1:49">
       <c r="A289" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B289" s="7" t="s">
         <v>2</v>
@@ -43776,7 +43776,7 @@
     </row>
     <row r="290" spans="1:49">
       <c r="A290" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B290" s="7" t="s">
         <v>2</v>
@@ -44074,7 +44074,7 @@
     </row>
     <row r="292" spans="1:49">
       <c r="A292" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B292" s="7" t="s">
         <v>3</v>
@@ -44223,7 +44223,7 @@
     </row>
     <row r="293" spans="1:49">
       <c r="A293" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B293" s="7" t="s">
         <v>3</v>
@@ -44372,7 +44372,7 @@
     </row>
     <row r="294" spans="1:49">
       <c r="A294" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B294" s="7" t="s">
         <v>3</v>
@@ -44521,7 +44521,7 @@
     </row>
     <row r="295" spans="1:49">
       <c r="A295" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B295" s="7" t="s">
         <v>3</v>
@@ -44819,7 +44819,7 @@
     </row>
     <row r="297" spans="1:49">
       <c r="A297" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B297" s="7" t="s">
         <v>4</v>
@@ -44968,7 +44968,7 @@
     </row>
     <row r="298" spans="1:49">
       <c r="A298" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B298" s="7" t="s">
         <v>4</v>
@@ -45117,7 +45117,7 @@
     </row>
     <row r="299" spans="1:49">
       <c r="A299" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B299" s="7" t="s">
         <v>4</v>
@@ -45266,7 +45266,7 @@
     </row>
     <row r="300" spans="1:49">
       <c r="A300" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B300" s="7" t="s">
         <v>4</v>
@@ -45564,7 +45564,7 @@
     </row>
     <row r="302" spans="1:49">
       <c r="A302" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B302" s="7" t="s">
         <v>53</v>
@@ -45713,7 +45713,7 @@
     </row>
     <row r="303" spans="1:49">
       <c r="A303" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B303" s="7" t="s">
         <v>53</v>
@@ -45862,7 +45862,7 @@
     </row>
     <row r="304" spans="1:49">
       <c r="A304" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B304" s="7" t="s">
         <v>53</v>
@@ -46011,7 +46011,7 @@
     </row>
     <row r="305" spans="1:49">
       <c r="A305" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B305" s="7" t="s">
         <v>53</v>
@@ -46309,7 +46309,7 @@
     </row>
     <row r="307" spans="1:49">
       <c r="A307" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B307" s="7" t="s">
         <v>2</v>
@@ -46458,7 +46458,7 @@
     </row>
     <row r="308" spans="1:49">
       <c r="A308" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B308" s="7" t="s">
         <v>2</v>
@@ -46607,7 +46607,7 @@
     </row>
     <row r="309" spans="1:49">
       <c r="A309" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B309" s="7" t="s">
         <v>2</v>
@@ -46756,7 +46756,7 @@
     </row>
     <row r="310" spans="1:49">
       <c r="A310" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B310" s="7" t="s">
         <v>2</v>
@@ -47054,7 +47054,7 @@
     </row>
     <row r="312" spans="1:49">
       <c r="A312" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B312" s="7" t="s">
         <v>3</v>
@@ -47203,7 +47203,7 @@
     </row>
     <row r="313" spans="1:49">
       <c r="A313" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B313" s="7" t="s">
         <v>3</v>
@@ -47352,7 +47352,7 @@
     </row>
     <row r="314" spans="1:49">
       <c r="A314" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B314" s="7" t="s">
         <v>3</v>
@@ -47501,7 +47501,7 @@
     </row>
     <row r="315" spans="1:49">
       <c r="A315" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B315" s="7" t="s">
         <v>3</v>
@@ -47799,7 +47799,7 @@
     </row>
     <row r="317" spans="1:49">
       <c r="A317" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B317" s="7" t="s">
         <v>4</v>
@@ -47948,7 +47948,7 @@
     </row>
     <row r="318" spans="1:49">
       <c r="A318" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B318" s="7" t="s">
         <v>4</v>
@@ -48097,7 +48097,7 @@
     </row>
     <row r="319" spans="1:49">
       <c r="A319" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B319" s="7" t="s">
         <v>4</v>
@@ -48246,7 +48246,7 @@
     </row>
     <row r="320" spans="1:49">
       <c r="A320" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B320" s="7" t="s">
         <v>4</v>
@@ -48544,7 +48544,7 @@
     </row>
     <row r="322" spans="1:49">
       <c r="A322" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B322" s="7" t="s">
         <v>53</v>
@@ -48693,7 +48693,7 @@
     </row>
     <row r="323" spans="1:49">
       <c r="A323" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B323" s="7" t="s">
         <v>53</v>
@@ -48842,7 +48842,7 @@
     </row>
     <row r="324" spans="1:49">
       <c r="A324" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B324" s="7" t="s">
         <v>53</v>
@@ -48991,7 +48991,7 @@
     </row>
     <row r="325" spans="1:49">
       <c r="A325" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B325" s="7" t="s">
         <v>53</v>
@@ -49289,7 +49289,7 @@
     </row>
     <row r="327" spans="1:49">
       <c r="A327" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B327" s="7" t="s">
         <v>2</v>
@@ -49438,7 +49438,7 @@
     </row>
     <row r="328" spans="1:49">
       <c r="A328" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B328" s="7" t="s">
         <v>2</v>
@@ -49587,7 +49587,7 @@
     </row>
     <row r="329" spans="1:49">
       <c r="A329" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B329" s="7" t="s">
         <v>2</v>
@@ -49736,7 +49736,7 @@
     </row>
     <row r="330" spans="1:49">
       <c r="A330" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B330" s="7" t="s">
         <v>2</v>
@@ -50034,7 +50034,7 @@
     </row>
     <row r="332" spans="1:49">
       <c r="A332" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B332" s="7" t="s">
         <v>3</v>
@@ -50183,7 +50183,7 @@
     </row>
     <row r="333" spans="1:49">
       <c r="A333" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B333" s="7" t="s">
         <v>3</v>
@@ -50332,7 +50332,7 @@
     </row>
     <row r="334" spans="1:49">
       <c r="A334" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B334" s="7" t="s">
         <v>3</v>
@@ -50481,7 +50481,7 @@
     </row>
     <row r="335" spans="1:49">
       <c r="A335" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B335" s="7" t="s">
         <v>3</v>
@@ -50779,7 +50779,7 @@
     </row>
     <row r="337" spans="1:49">
       <c r="A337" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B337" s="7" t="s">
         <v>4</v>
@@ -50928,7 +50928,7 @@
     </row>
     <row r="338" spans="1:49">
       <c r="A338" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B338" s="7" t="s">
         <v>4</v>
@@ -51077,7 +51077,7 @@
     </row>
     <row r="339" spans="1:49">
       <c r="A339" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B339" s="7" t="s">
         <v>4</v>
@@ -51226,7 +51226,7 @@
     </row>
     <row r="340" spans="1:49">
       <c r="A340" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B340" s="7" t="s">
         <v>4</v>
@@ -51524,7 +51524,7 @@
     </row>
     <row r="342" spans="1:49">
       <c r="A342" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B342" s="7" t="s">
         <v>53</v>
@@ -51673,7 +51673,7 @@
     </row>
     <row r="343" spans="1:49">
       <c r="A343" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B343" s="7" t="s">
         <v>53</v>
@@ -51822,7 +51822,7 @@
     </row>
     <row r="344" spans="1:49">
       <c r="A344" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B344" s="7" t="s">
         <v>53</v>
@@ -51971,7 +51971,7 @@
     </row>
     <row r="345" spans="1:49">
       <c r="A345" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B345" s="7" t="s">
         <v>53</v>
@@ -52269,7 +52269,7 @@
     </row>
     <row r="347" spans="1:49">
       <c r="A347" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B347" s="7" t="s">
         <v>2</v>
@@ -52418,7 +52418,7 @@
     </row>
     <row r="348" spans="1:49">
       <c r="A348" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B348" s="7" t="s">
         <v>2</v>
@@ -52567,7 +52567,7 @@
     </row>
     <row r="349" spans="1:49">
       <c r="A349" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B349" s="7" t="s">
         <v>2</v>
@@ -52716,7 +52716,7 @@
     </row>
     <row r="350" spans="1:49">
       <c r="A350" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B350" s="7" t="s">
         <v>2</v>
@@ -53014,7 +53014,7 @@
     </row>
     <row r="352" spans="1:49">
       <c r="A352" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B352" s="7" t="s">
         <v>3</v>
@@ -53163,7 +53163,7 @@
     </row>
     <row r="353" spans="1:49">
       <c r="A353" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B353" s="7" t="s">
         <v>3</v>
@@ -53312,7 +53312,7 @@
     </row>
     <row r="354" spans="1:49">
       <c r="A354" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B354" s="7" t="s">
         <v>3</v>
@@ -53461,7 +53461,7 @@
     </row>
     <row r="355" spans="1:49">
       <c r="A355" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B355" s="7" t="s">
         <v>3</v>
@@ -53759,7 +53759,7 @@
     </row>
     <row r="357" spans="1:49">
       <c r="A357" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B357" s="7" t="s">
         <v>4</v>
@@ -53908,7 +53908,7 @@
     </row>
     <row r="358" spans="1:49">
       <c r="A358" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B358" s="7" t="s">
         <v>4</v>
@@ -54057,7 +54057,7 @@
     </row>
     <row r="359" spans="1:49">
       <c r="A359" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B359" s="7" t="s">
         <v>4</v>
@@ -54206,7 +54206,7 @@
     </row>
     <row r="360" spans="1:49">
       <c r="A360" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B360" s="7" t="s">
         <v>4</v>
@@ -54504,7 +54504,7 @@
     </row>
     <row r="362" spans="1:49">
       <c r="A362" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B362" s="7" t="s">
         <v>53</v>
@@ -54653,7 +54653,7 @@
     </row>
     <row r="363" spans="1:49">
       <c r="A363" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B363" s="7" t="s">
         <v>53</v>
@@ -54802,7 +54802,7 @@
     </row>
     <row r="364" spans="1:49">
       <c r="A364" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B364" s="7" t="s">
         <v>53</v>
@@ -54951,7 +54951,7 @@
     </row>
     <row r="365" spans="1:49">
       <c r="A365" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B365" s="7" t="s">
         <v>53</v>
@@ -55249,7 +55249,7 @@
     </row>
     <row r="367" spans="1:49">
       <c r="A367" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B367" s="7" t="s">
         <v>2</v>
@@ -55398,7 +55398,7 @@
     </row>
     <row r="368" spans="1:49">
       <c r="A368" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B368" s="7" t="s">
         <v>2</v>
@@ -55547,7 +55547,7 @@
     </row>
     <row r="369" spans="1:49">
       <c r="A369" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B369" s="7" t="s">
         <v>2</v>
@@ -55696,7 +55696,7 @@
     </row>
     <row r="370" spans="1:49">
       <c r="A370" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B370" s="7" t="s">
         <v>2</v>
@@ -55994,7 +55994,7 @@
     </row>
     <row r="372" spans="1:49">
       <c r="A372" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B372" s="7" t="s">
         <v>3</v>
@@ -56143,7 +56143,7 @@
     </row>
     <row r="373" spans="1:49">
       <c r="A373" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B373" s="7" t="s">
         <v>3</v>
@@ -56292,7 +56292,7 @@
     </row>
     <row r="374" spans="1:49">
       <c r="A374" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B374" s="7" t="s">
         <v>3</v>
@@ -56441,7 +56441,7 @@
     </row>
     <row r="375" spans="1:49">
       <c r="A375" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B375" s="7" t="s">
         <v>3</v>
@@ -56739,7 +56739,7 @@
     </row>
     <row r="377" spans="1:49">
       <c r="A377" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B377" s="7" t="s">
         <v>4</v>
@@ -56888,7 +56888,7 @@
     </row>
     <row r="378" spans="1:49">
       <c r="A378" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B378" s="7" t="s">
         <v>4</v>
@@ -57037,7 +57037,7 @@
     </row>
     <row r="379" spans="1:49">
       <c r="A379" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B379" s="7" t="s">
         <v>4</v>
@@ -57186,7 +57186,7 @@
     </row>
     <row r="380" spans="1:49">
       <c r="A380" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B380" s="7" t="s">
         <v>4</v>
@@ -57484,7 +57484,7 @@
     </row>
     <row r="382" spans="1:49">
       <c r="A382" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B382" s="7" t="s">
         <v>53</v>
@@ -57633,7 +57633,7 @@
     </row>
     <row r="383" spans="1:49">
       <c r="A383" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B383" s="7" t="s">
         <v>53</v>
@@ -57782,7 +57782,7 @@
     </row>
     <row r="384" spans="1:49">
       <c r="A384" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B384" s="7" t="s">
         <v>53</v>
@@ -57931,7 +57931,7 @@
     </row>
     <row r="385" spans="1:49">
       <c r="A385" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B385" s="7" t="s">
         <v>53</v>
@@ -58229,7 +58229,7 @@
     </row>
     <row r="387" spans="1:49">
       <c r="A387" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B387" s="7" t="s">
         <v>2</v>
@@ -58378,7 +58378,7 @@
     </row>
     <row r="388" spans="1:49">
       <c r="A388" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B388" s="7" t="s">
         <v>2</v>
@@ -58527,7 +58527,7 @@
     </row>
     <row r="389" spans="1:49">
       <c r="A389" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B389" s="7" t="s">
         <v>2</v>
@@ -58676,7 +58676,7 @@
     </row>
     <row r="390" spans="1:49">
       <c r="A390" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B390" s="7" t="s">
         <v>2</v>
@@ -58974,7 +58974,7 @@
     </row>
     <row r="392" spans="1:49">
       <c r="A392" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B392" s="7" t="s">
         <v>3</v>
@@ -59123,7 +59123,7 @@
     </row>
     <row r="393" spans="1:49">
       <c r="A393" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B393" s="7" t="s">
         <v>3</v>
@@ -59272,7 +59272,7 @@
     </row>
     <row r="394" spans="1:49">
       <c r="A394" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B394" s="7" t="s">
         <v>3</v>
@@ -59421,7 +59421,7 @@
     </row>
     <row r="395" spans="1:49">
       <c r="A395" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B395" s="7" t="s">
         <v>3</v>
@@ -59719,7 +59719,7 @@
     </row>
     <row r="397" spans="1:49">
       <c r="A397" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B397" s="7" t="s">
         <v>4</v>
@@ -59868,7 +59868,7 @@
     </row>
     <row r="398" spans="1:49">
       <c r="A398" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B398" s="7" t="s">
         <v>4</v>
@@ -60017,7 +60017,7 @@
     </row>
     <row r="399" spans="1:49">
       <c r="A399" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B399" s="7" t="s">
         <v>4</v>
@@ -60166,7 +60166,7 @@
     </row>
     <row r="400" spans="1:49">
       <c r="A400" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B400" s="7" t="s">
         <v>4</v>

--- a/Project2-Shiny/JieleiZhu/data/(master)Income_Marital.xlsx
+++ b/Project2-Shiny/JieleiZhu/data/(master)Income_Marital.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="0" windowWidth="25580" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="820" yWindow="0" windowWidth="28000" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -272,7 +272,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -292,43 +292,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFAAC1D9"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFAAC1D9"/>
       </bottom>
       <diagonal/>
     </border>
@@ -358,15 +321,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -704,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW401"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A390" workbookViewId="0">
+      <selection activeCell="A402" sqref="A402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
